--- a/development_nicht_fertig/grobe_untesrchiede_versionen.xlsx
+++ b/development_nicht_fertig/grobe_untesrchiede_versionen.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
   <si>
     <t>AITEC</t>
   </si>
@@ -61,6 +61,12 @@
   </si>
   <si>
     <t>am besten mit dieser Version weiterarbeiten, aber Version z. B. auf 1.4</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>getestet in</t>
   </si>
 </sst>
 </file>
@@ -96,9 +102,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -393,39 +402,43 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="20.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="58.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="40.5703125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="23.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:6">
       <c r="B2" t="s">
         <v>7</v>
       </c>
       <c r="C2" t="s">
         <v>9</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="F2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -433,7 +446,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -441,7 +454,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -452,7 +465,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:6" ht="45">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
@@ -462,23 +475,26 @@
       <c r="C6" t="s">
         <v>10</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:6">
       <c r="A7" s="1"/>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:6">
       <c r="A8" s="1"/>
-    </row>
-    <row r="9" spans="1:5">
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1"/>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:6">
       <c r="A10" s="1"/>
     </row>
   </sheetData>
